--- a/va_facility_data_2025-02-20/Charles Wilson Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Charles%20Wilson%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Charles Wilson Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Charles%20Wilson%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R55fa1ddf7955431faee0c87eb2e7be1a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfd0b8b0fa0844c478ffdbea1832b8243"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb5eb6cc654cc45fc9df4541c21b79526"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3c79789bf1fc441db75804a126652337"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R54c4e94ac5cd48c8bc36ddd09b9e4081"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R323abf67169c45439667ce4278d8177e"/>
   </x:sheets>
 </x:workbook>
 </file>
